--- a/DCO_PCB/componente_v2.xlsx
+++ b/DCO_PCB/componente_v2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Botix\Desktop\Work\NAPOSIP\DCO_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3AA8C1D3-2382-4601-A67F-A4C0729E5FD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -288,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,11 +671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,26 +1106,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6" display="http://www.protehno.ro/resistors/fixed-resistors/chip-resistors--surface-mount/1422547/ "/>
-    <hyperlink ref="D17" r:id="rId7"/>
-    <hyperlink ref="D4" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
-    <hyperlink ref="D18" r:id="rId10"/>
-    <hyperlink ref="D19" r:id="rId11"/>
-    <hyperlink ref="D20" r:id="rId12"/>
-    <hyperlink ref="D21" r:id="rId13"/>
-    <hyperlink ref="D22" r:id="rId14"/>
-    <hyperlink ref="D24" r:id="rId15"/>
-    <hyperlink ref="D33" r:id="rId16"/>
-    <hyperlink ref="D34" r:id="rId17"/>
-    <hyperlink ref="D35" r:id="rId18"/>
-    <hyperlink ref="D36" r:id="rId19"/>
-    <hyperlink ref="D26" r:id="rId20"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D12" r:id="rId6" display="http://www.protehno.ro/resistors/fixed-resistors/chip-resistors--surface-mount/1422547/ " xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
